--- a/docs/excel/TName.xlsx
+++ b/docs/excel/TName.xlsx
@@ -687,11 +687,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
+    <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Id</t>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:D204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1125,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>18</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>

--- a/docs/excel/TName.xlsx
+++ b/docs/excel/TName.xlsx
@@ -86,21 +86,12 @@
     <t>伏姬</t>
   </si>
   <si>
-    <t>乐正秀</t>
-  </si>
-  <si>
     <t>水莎</t>
   </si>
   <si>
     <t>柏青槐</t>
   </si>
   <si>
-    <t>孔水云</t>
-  </si>
-  <si>
-    <t>郑馥</t>
-  </si>
-  <si>
     <t>岑沛文</t>
   </si>
   <si>
@@ -116,33 +107,15 @@
     <t>戚露</t>
   </si>
   <si>
-    <t>柳岚</t>
-  </si>
-  <si>
-    <t>沈娅</t>
-  </si>
-  <si>
     <t>暴傲蕾</t>
   </si>
   <si>
     <t>第五冰露</t>
   </si>
   <si>
-    <t>邹蕊</t>
-  </si>
-  <si>
     <t>堵茜</t>
   </si>
   <si>
-    <t>云翠柔</t>
-  </si>
-  <si>
-    <t>时冬儿</t>
-  </si>
-  <si>
-    <t>阎婷</t>
-  </si>
-  <si>
     <t>羊舌凡</t>
   </si>
   <si>
@@ -152,75 +125,18 @@
     <t>庚婉</t>
   </si>
   <si>
-    <t>钱飘</t>
-  </si>
-  <si>
     <t>孔嘉</t>
   </si>
   <si>
-    <t>钱可</t>
-  </si>
-  <si>
-    <t>施凌珍</t>
-  </si>
-  <si>
-    <t>凤婵</t>
-  </si>
-  <si>
     <t>蒙菲</t>
   </si>
   <si>
-    <t>应怡</t>
-  </si>
-  <si>
-    <t>权逯晶</t>
-  </si>
-  <si>
-    <t>黄琦</t>
-  </si>
-  <si>
-    <t>和韵</t>
-  </si>
-  <si>
-    <t>柏访枫</t>
-  </si>
-  <si>
-    <t>云柔</t>
-  </si>
-  <si>
-    <t>汤之柔</t>
-  </si>
-  <si>
-    <t>姜筠</t>
-  </si>
-  <si>
-    <t>韩璧</t>
-  </si>
-  <si>
-    <t>储乐萱</t>
-  </si>
-  <si>
-    <t>封冬儿</t>
-  </si>
-  <si>
-    <t>姬灵竹</t>
-  </si>
-  <si>
     <t>宗思</t>
   </si>
   <si>
-    <t>姜之瑶</t>
-  </si>
-  <si>
     <t>曹媛</t>
   </si>
   <si>
-    <t>吕月</t>
-  </si>
-  <si>
-    <t>许绮菱</t>
-  </si>
-  <si>
     <t>任平夏</t>
   </si>
   <si>
@@ -230,54 +146,18 @@
     <t>蔚之柔</t>
   </si>
   <si>
-    <t>卫霭</t>
-  </si>
-  <si>
-    <t>吕柔</t>
-  </si>
-  <si>
     <t>葛思</t>
   </si>
   <si>
-    <t>韩乐</t>
-  </si>
-  <si>
-    <t>时半芹</t>
-  </si>
-  <si>
-    <t>郏怜寒</t>
-  </si>
-  <si>
-    <t>赵贞</t>
-  </si>
-  <si>
-    <t>卫桂</t>
-  </si>
-  <si>
-    <t>穆水云</t>
-  </si>
-  <si>
     <t>仉琦</t>
   </si>
   <si>
-    <t>汤荷</t>
-  </si>
-  <si>
     <t>沈妙海</t>
   </si>
   <si>
     <t>章平夏</t>
   </si>
   <si>
-    <t>金痴梦</t>
-  </si>
-  <si>
-    <t>邹访琴</t>
-  </si>
-  <si>
-    <t>巩嘉</t>
-  </si>
-  <si>
     <t>秦荔</t>
   </si>
   <si>
@@ -290,99 +170,33 @@
     <t>曹荷</t>
   </si>
   <si>
-    <t>魏寻文</t>
-  </si>
-  <si>
-    <t>吕莉</t>
-  </si>
-  <si>
-    <t>陈紫霜</t>
-  </si>
-  <si>
-    <t>伊乐萱</t>
-  </si>
-  <si>
-    <t>苏灵竹</t>
-  </si>
-  <si>
     <t>殷珊</t>
   </si>
   <si>
-    <t>孙琴</t>
-  </si>
-  <si>
     <t>秦黛</t>
   </si>
   <si>
-    <t>邹向萍</t>
-  </si>
-  <si>
-    <t>周寻文</t>
-  </si>
-  <si>
-    <t>韩宁</t>
-  </si>
-  <si>
-    <t>杨佳</t>
-  </si>
-  <si>
-    <t>毕娴</t>
-  </si>
-  <si>
-    <t>时薇</t>
-  </si>
-  <si>
-    <t>冯姬</t>
-  </si>
-  <si>
     <t>柏菁</t>
   </si>
   <si>
     <t>施枝</t>
   </si>
   <si>
-    <t>施咏</t>
-  </si>
-  <si>
-    <t>陶莺</t>
-  </si>
-  <si>
     <t>党翠安</t>
   </si>
   <si>
-    <t>罗纨</t>
-  </si>
-  <si>
-    <t>严妙海</t>
-  </si>
-  <si>
-    <t>谢如天</t>
-  </si>
-  <si>
-    <t>郑丹珍</t>
-  </si>
-  <si>
     <t>陶欣</t>
   </si>
   <si>
-    <t>龚枝</t>
-  </si>
-  <si>
     <t>尤馨</t>
   </si>
   <si>
-    <t>钱绮菱</t>
-  </si>
-  <si>
     <t>方蓓</t>
   </si>
   <si>
     <t>雷瑾</t>
   </si>
   <si>
-    <t>云傲蕾</t>
-  </si>
-  <si>
     <t>弘丹</t>
   </si>
   <si>
@@ -398,27 +212,6 @@
     <t>章佳</t>
   </si>
   <si>
-    <t>云馥</t>
-  </si>
-  <si>
-    <t>闻人晶</t>
-  </si>
-  <si>
-    <t>水凌旋</t>
-  </si>
-  <si>
-    <t>卫黛</t>
-  </si>
-  <si>
-    <t>陈咏</t>
-  </si>
-  <si>
-    <t>郝乐之</t>
-  </si>
-  <si>
-    <t>薛琼</t>
-  </si>
-  <si>
     <t>孔笑白</t>
   </si>
   <si>
@@ -428,60 +221,21 @@
     <t>彭青</t>
   </si>
   <si>
-    <t>华霭</t>
-  </si>
-  <si>
-    <t>任艺</t>
-  </si>
-  <si>
     <t>安宛海</t>
   </si>
   <si>
-    <t>梁丘娅</t>
-  </si>
-  <si>
-    <t>施凌雪</t>
-  </si>
-  <si>
     <t>鄢媛</t>
   </si>
   <si>
-    <t>孙秀</t>
-  </si>
-  <si>
-    <t>苏桂</t>
-  </si>
-  <si>
-    <t>马茜</t>
-  </si>
-  <si>
-    <t>沈叶</t>
-  </si>
-  <si>
     <t>段瑾</t>
   </si>
   <si>
-    <t>秦乐之</t>
-  </si>
-  <si>
     <t>尹如霜</t>
   </si>
   <si>
-    <t>糜锦</t>
-  </si>
-  <si>
-    <t>乐滢</t>
-  </si>
-  <si>
-    <t>许叶</t>
-  </si>
-  <si>
     <t>卞妙海</t>
   </si>
   <si>
-    <t>朱乐萱</t>
-  </si>
-  <si>
     <t>尤夜白</t>
   </si>
   <si>
@@ -491,198 +245,48 @@
     <t>昝傲蕾</t>
   </si>
   <si>
-    <t>杨婕</t>
-  </si>
-  <si>
-    <t>严影</t>
-  </si>
-  <si>
     <t>樊寒</t>
   </si>
   <si>
-    <t>魏访枫</t>
-  </si>
-  <si>
-    <t>秦莺</t>
-  </si>
-  <si>
-    <t>闾丘谷雪</t>
-  </si>
-  <si>
     <t>沈寒雁</t>
   </si>
   <si>
-    <t>郑问筠</t>
-  </si>
-  <si>
     <t>秦婷</t>
   </si>
   <si>
-    <t>吴琴</t>
-  </si>
-  <si>
-    <t>赵艳</t>
-  </si>
-  <si>
-    <t>赵傲蕾</t>
-  </si>
-  <si>
-    <t>王痴梦</t>
-  </si>
-  <si>
-    <t>邹艺</t>
-  </si>
-  <si>
-    <t>向纨</t>
-  </si>
-  <si>
-    <t>金韵</t>
-  </si>
-  <si>
     <t>佟馥</t>
   </si>
   <si>
-    <t>张海莲</t>
-  </si>
-  <si>
-    <t>娄莺</t>
-  </si>
-  <si>
     <t>孔苑</t>
   </si>
   <si>
     <t>逄雁</t>
   </si>
   <si>
-    <t>孙乐萱</t>
-  </si>
-  <si>
-    <t>方亦瑶</t>
-  </si>
-  <si>
-    <t>吕夏青</t>
-  </si>
-  <si>
     <t>葛元珊</t>
   </si>
   <si>
-    <t>水亦瑶</t>
-  </si>
-  <si>
-    <t>倪莺</t>
-  </si>
-  <si>
-    <t>喻晓</t>
-  </si>
-  <si>
-    <t>喻访琴</t>
-  </si>
-  <si>
     <t>周荔</t>
   </si>
   <si>
-    <t>谢姬</t>
-  </si>
-  <si>
     <t>空霄</t>
   </si>
   <si>
-    <t>秦谷雪</t>
-  </si>
-  <si>
-    <t>章怜寒</t>
-  </si>
-  <si>
-    <t>陈晶</t>
-  </si>
-  <si>
-    <t>杨半芹</t>
-  </si>
-  <si>
-    <t>钱海莲</t>
-  </si>
-  <si>
     <t>陶涵菡</t>
   </si>
   <si>
-    <t>何谷波</t>
-  </si>
-  <si>
-    <t>冯仪</t>
-  </si>
-  <si>
-    <t>郁婉</t>
-  </si>
-  <si>
     <t>褚薇</t>
   </si>
   <si>
-    <t>唐丽丽</t>
-  </si>
-  <si>
-    <t>窦叶</t>
-  </si>
-  <si>
-    <t>庞松</t>
-  </si>
-  <si>
-    <t>喻寻南</t>
-  </si>
-  <si>
-    <t>冯芸</t>
-  </si>
-  <si>
-    <t>曹乐萱</t>
-  </si>
-  <si>
-    <t>冯易梦</t>
-  </si>
-  <si>
-    <t>严紫霜</t>
-  </si>
-  <si>
-    <t>邹姬</t>
-  </si>
-  <si>
     <t>秦姣</t>
   </si>
   <si>
-    <t>蒋涵菡</t>
-  </si>
-  <si>
-    <t>壤驷如霜</t>
-  </si>
-  <si>
-    <t>冯筠</t>
-  </si>
-  <si>
     <t>戚笑白</t>
   </si>
   <si>
-    <t>郁瑶</t>
-  </si>
-  <si>
-    <t>芮园</t>
-  </si>
-  <si>
-    <t>夏侯谷雪</t>
-  </si>
-  <si>
-    <t>吕海莲</t>
-  </si>
-  <si>
-    <t>蒋怜云</t>
-  </si>
-  <si>
-    <t>杜娴</t>
-  </si>
-  <si>
     <t>惠夜白</t>
   </si>
   <si>
-    <t>申屠园</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,6 +296,534 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂正秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔水雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭馥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳嵐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈婭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄒蕊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲翠柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時冬兒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閻婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錢飄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錢可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施淩珍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳嬋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>應怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>權逯晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和韻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏訪楓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湯之柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薑筠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓璧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儲樂萱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封冬兒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姬靈竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薑之瑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許綺菱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛靄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時半芹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郟憐寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙貞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛桂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆水雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湯荷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金癡夢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄒訪琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞏嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏尋文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂莉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳紫霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊樂萱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇靈竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄒向萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周尋文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓寧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>畢嫻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時薇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施詠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶鶯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅紈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚴妙海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝如天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭丹珍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龔枝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錢綺菱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲傲蕾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雲馥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聞人晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水淩旋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛黛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳詠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝樂之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薛瓊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華靄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任藝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁丘婭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施淩雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇桂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬茜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦樂之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糜錦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂瀅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱樂萱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊婕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚴影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏訪楓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦鶯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>閭丘穀雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭問筠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙豔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙傲蕾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王癡夢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄒藝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向紈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金韻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張海蓮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婁鶯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫樂萱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方亦瑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂夏青</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水亦瑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倪鶯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻曉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻訪琴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>謝姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦穀雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章憐寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楊半芹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錢海蓮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何穀波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮儀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬱婉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐麗麗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竇葉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龐松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻尋南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮芸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹樂萱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮易夢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚴紫霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄒姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔣涵菡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壤駟如霜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮筠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬱瑤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芮園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯穀雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂海蓮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔣憐雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜嫻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申屠園</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +1247,7 @@
   <dimension ref="A1:D204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1257,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>222</v>
+        <v>90</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>18</v>
@@ -1134,7 +1266,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1147,7 +1279,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>20</v>
@@ -1167,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1175,7 +1307,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1183,7 +1315,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1191,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1199,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1207,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1215,7 +1347,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1223,7 +1355,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1231,7 +1363,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1239,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1247,7 +1379,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1255,7 +1387,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1263,7 +1395,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1271,7 +1403,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1279,7 +1411,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1287,7 +1419,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1295,7 +1427,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1303,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1311,7 +1443,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1319,7 +1451,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1327,7 +1459,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1335,7 +1467,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1343,7 +1475,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1351,7 +1483,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1359,7 +1491,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1367,7 +1499,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1375,7 +1507,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1383,7 +1515,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1391,7 +1523,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1399,7 +1531,7 @@
         <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1407,7 +1539,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1415,7 +1547,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1423,7 +1555,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1431,7 +1563,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1439,7 +1571,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1447,7 +1579,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1455,7 +1587,7 @@
         <v>38</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1463,7 +1595,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1471,7 +1603,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1479,7 +1611,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1487,7 +1619,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1495,7 +1627,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1503,7 +1635,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1511,7 +1643,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1519,7 +1651,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1527,7 +1659,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1535,7 +1667,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1543,7 +1675,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1551,7 +1683,7 @@
         <v>50</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1559,7 +1691,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1567,7 +1699,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1575,7 +1707,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1583,7 +1715,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1591,7 +1723,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1599,7 +1731,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1607,7 +1739,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1615,7 +1747,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1623,7 +1755,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1631,7 +1763,7 @@
         <v>60</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1639,7 +1771,7 @@
         <v>61</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1647,7 +1779,7 @@
         <v>62</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1655,7 +1787,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1663,7 +1795,7 @@
         <v>64</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1671,7 +1803,7 @@
         <v>65</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1679,7 +1811,7 @@
         <v>66</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1687,7 +1819,7 @@
         <v>67</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1695,7 +1827,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1703,7 +1835,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1711,7 +1843,7 @@
         <v>70</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1719,7 +1851,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1727,7 +1859,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1735,7 +1867,7 @@
         <v>73</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1743,7 +1875,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1751,7 +1883,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1759,7 +1891,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1767,7 +1899,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1775,7 +1907,7 @@
         <v>78</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1783,7 +1915,7 @@
         <v>79</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1791,7 +1923,7 @@
         <v>80</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1799,7 +1931,7 @@
         <v>81</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1807,7 +1939,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1815,7 +1947,7 @@
         <v>83</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1823,7 +1955,7 @@
         <v>84</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1831,7 +1963,7 @@
         <v>85</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1839,7 +1971,7 @@
         <v>86</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1847,7 +1979,7 @@
         <v>87</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1855,7 +1987,7 @@
         <v>88</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1863,7 +1995,7 @@
         <v>89</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1871,7 +2003,7 @@
         <v>90</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1879,7 +2011,7 @@
         <v>91</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1887,7 +2019,7 @@
         <v>92</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1895,7 +2027,7 @@
         <v>93</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1903,7 +2035,7 @@
         <v>94</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1911,7 +2043,7 @@
         <v>95</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1919,7 +2051,7 @@
         <v>96</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1927,7 +2059,7 @@
         <v>97</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1935,7 +2067,7 @@
         <v>98</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1943,7 +2075,7 @@
         <v>99</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1951,7 +2083,7 @@
         <v>100</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1959,7 +2091,7 @@
         <v>101</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1967,7 +2099,7 @@
         <v>102</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1975,7 +2107,7 @@
         <v>103</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1983,7 +2115,7 @@
         <v>104</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1991,7 +2123,7 @@
         <v>105</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1999,7 +2131,7 @@
         <v>106</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -2007,7 +2139,7 @@
         <v>107</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -2015,7 +2147,7 @@
         <v>108</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -2023,7 +2155,7 @@
         <v>109</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -2031,7 +2163,7 @@
         <v>110</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -2039,7 +2171,7 @@
         <v>111</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -2047,7 +2179,7 @@
         <v>112</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -2055,7 +2187,7 @@
         <v>113</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -2063,7 +2195,7 @@
         <v>114</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -2071,7 +2203,7 @@
         <v>115</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -2079,7 +2211,7 @@
         <v>116</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -2087,7 +2219,7 @@
         <v>117</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -2095,7 +2227,7 @@
         <v>118</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -2103,7 +2235,7 @@
         <v>119</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -2111,7 +2243,7 @@
         <v>120</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -2119,7 +2251,7 @@
         <v>121</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -2127,7 +2259,7 @@
         <v>122</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -2135,7 +2267,7 @@
         <v>123</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -2143,7 +2275,7 @@
         <v>124</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -2151,7 +2283,7 @@
         <v>125</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -2159,7 +2291,7 @@
         <v>126</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>146</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -2167,7 +2299,7 @@
         <v>127</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -2175,7 +2307,7 @@
         <v>128</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -2183,7 +2315,7 @@
         <v>129</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -2191,7 +2323,7 @@
         <v>130</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -2199,7 +2331,7 @@
         <v>131</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -2207,7 +2339,7 @@
         <v>132</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -2215,7 +2347,7 @@
         <v>133</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -2223,7 +2355,7 @@
         <v>134</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -2231,7 +2363,7 @@
         <v>135</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2239,7 +2371,7 @@
         <v>136</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>156</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2247,7 +2379,7 @@
         <v>137</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2255,7 +2387,7 @@
         <v>138</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2263,7 +2395,7 @@
         <v>139</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2271,7 +2403,7 @@
         <v>140</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2279,7 +2411,7 @@
         <v>141</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2287,7 +2419,7 @@
         <v>142</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2295,7 +2427,7 @@
         <v>143</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2303,7 +2435,7 @@
         <v>144</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2311,7 +2443,7 @@
         <v>145</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2319,7 +2451,7 @@
         <v>146</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2327,7 +2459,7 @@
         <v>147</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2335,7 +2467,7 @@
         <v>148</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2343,7 +2475,7 @@
         <v>149</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2351,7 +2483,7 @@
         <v>150</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -2359,7 +2491,7 @@
         <v>151</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2367,7 +2499,7 @@
         <v>152</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2375,7 +2507,7 @@
         <v>153</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2383,7 +2515,7 @@
         <v>154</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2391,7 +2523,7 @@
         <v>155</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2399,7 +2531,7 @@
         <v>156</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2407,7 +2539,7 @@
         <v>157</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2415,7 +2547,7 @@
         <v>158</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2423,7 +2555,7 @@
         <v>159</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2431,7 +2563,7 @@
         <v>160</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2439,7 +2571,7 @@
         <v>161</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2447,7 +2579,7 @@
         <v>162</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2455,7 +2587,7 @@
         <v>163</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2463,7 +2595,7 @@
         <v>164</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2471,7 +2603,7 @@
         <v>165</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2479,7 +2611,7 @@
         <v>166</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2487,7 +2619,7 @@
         <v>167</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2495,7 +2627,7 @@
         <v>168</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2503,7 +2635,7 @@
         <v>169</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2511,7 +2643,7 @@
         <v>170</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2519,7 +2651,7 @@
         <v>171</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2527,7 +2659,7 @@
         <v>172</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2535,7 +2667,7 @@
         <v>173</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2543,7 +2675,7 @@
         <v>174</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -2551,7 +2683,7 @@
         <v>175</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -2559,7 +2691,7 @@
         <v>176</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -2567,7 +2699,7 @@
         <v>177</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -2575,7 +2707,7 @@
         <v>178</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -2583,7 +2715,7 @@
         <v>179</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -2591,7 +2723,7 @@
         <v>180</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -2599,7 +2731,7 @@
         <v>181</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -2607,7 +2739,7 @@
         <v>182</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2615,7 +2747,7 @@
         <v>183</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -2623,7 +2755,7 @@
         <v>184</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -2631,7 +2763,7 @@
         <v>185</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -2639,7 +2771,7 @@
         <v>186</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -2647,7 +2779,7 @@
         <v>187</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -2655,7 +2787,7 @@
         <v>188</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>208</v>
+        <v>86</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -2663,7 +2795,7 @@
         <v>189</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2671,7 +2803,7 @@
         <v>190</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -2679,7 +2811,7 @@
         <v>191</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -2687,7 +2819,7 @@
         <v>192</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -2695,7 +2827,7 @@
         <v>193</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -2703,7 +2835,7 @@
         <v>194</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -2711,7 +2843,7 @@
         <v>195</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -2719,7 +2851,7 @@
         <v>196</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -2727,7 +2859,7 @@
         <v>197</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -2735,7 +2867,7 @@
         <v>198</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -2743,7 +2875,7 @@
         <v>199</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>219</v>
+        <v>88</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -2751,7 +2883,7 @@
         <v>200</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
